--- a/output6.xlsx
+++ b/output6.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.215576069</v>
+        <v>2.487019206</v>
       </c>
       <c r="B2" t="n">
-        <v>11.24243358255444</v>
+        <v>6.494675587492553</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.811281444554441</v>
+        <v>-1.520637175492554</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,27 +471,27 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.81125059</v>
+        <v>4.276330538</v>
       </c>
       <c r="B3" t="n">
-        <v>15.38855400577667</v>
+        <v>8.905741720992554</v>
       </c>
       <c r="C3" t="n">
-        <v>1.334838978667785</v>
+        <v>0.8904289580074458</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.433562819</v>
+        <v>4.821454312</v>
       </c>
       <c r="B4" t="n">
-        <v>10.96426740281674</v>
+        <v>8.841882531409221</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.089447624292144</v>
+        <v>0.8265697684241129</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.322050066999999</v>
+        <v>2.747235854</v>
       </c>
       <c r="B5" t="n">
-        <v>12.44957911614252</v>
+        <v>7.158825841153844</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.604135910966365</v>
+        <v>-0.8564869218312636</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.517633684</v>
+        <v>1.172902955</v>
       </c>
       <c r="B6" t="n">
-        <v>12.47781331456348</v>
+        <v>5.573676398316271</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.575901712545398</v>
+        <v>-2.441636364668836</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -527,27 +527,27 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.780483084</v>
+        <v>-0.1251774</v>
       </c>
       <c r="B7" t="n">
-        <v>9.704524519728437</v>
+        <v>4.22028537973135</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.349190507380444</v>
+        <v>-3.795027383253757</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.213274129</v>
+        <v>0.096924545</v>
       </c>
       <c r="B8" t="n">
-        <v>8.719831119279892</v>
+        <v>4.127715892693143</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.333883907828991</v>
+        <v>-3.887596870291965</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.166691462</v>
+        <v>0.338881229</v>
       </c>
       <c r="B9" t="n">
-        <v>8.137883050106572</v>
+        <v>4.825190709302556</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.48552444041427</v>
+        <v>-4.234952456896177</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.059068412</v>
+        <v>0.498110285</v>
       </c>
       <c r="B10" t="n">
-        <v>6.666696736227242</v>
+        <v>4.985190749689509</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.964385926472406</v>
+        <v>-4.070165811754317</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.471368781</v>
+        <v>0.062841145</v>
       </c>
       <c r="B11" t="n">
-        <v>6.427379016884916</v>
+        <v>4.732676421328867</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.869596487409756</v>
+        <v>-4.449125925056743</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -597,27 +597,27 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.38604109</v>
+        <v>-0.752246287</v>
       </c>
       <c r="B12" t="n">
-        <v>8.66353622947144</v>
+        <v>5.404270648318844</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.464186153613536</v>
+        <v>-3.920544942595752</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.072586231</v>
+        <v>-1.900503757</v>
       </c>
       <c r="B13" t="n">
-        <v>7.827824667531582</v>
+        <v>4.846519112890827</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.499141917486229</v>
+        <v>-4.497732469610679</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -625,27 +625,27 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.068638491</v>
+        <v>-2.392736999</v>
       </c>
       <c r="B14" t="n">
-        <v>5.123628373836304</v>
+        <v>4.205720177716104</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.491349523642169</v>
+        <v>-4.943521465957433</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.388203673</v>
+        <v>-0.889556232</v>
       </c>
       <c r="B15" t="n">
-        <v>5.07833325610472</v>
+        <v>3.902010866414305</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.531551863081605</v>
+        <v>-4.857655229563013</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.451988864</v>
+        <v>2.177135148</v>
       </c>
       <c r="B16" t="n">
-        <v>4.664392961972339</v>
+        <v>4.183690514216201</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.211051000895202</v>
+        <v>-4.038624129002612</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -667,83 +667,83 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.474759357</v>
+        <v>6.393466683</v>
       </c>
       <c r="B17" t="n">
-        <v>3.646362748775912</v>
+        <v>5.39287651548046</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.333851963241949</v>
+        <v>-2.646208148383487</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.427858791</v>
+        <v>8.442749600000001</v>
       </c>
       <c r="B18" t="n">
-        <v>4.378993159938103</v>
+        <v>6.85985029435791</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.932301533038201</v>
+        <v>-1.220273248440571</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.03186473</v>
+        <v>9.012743063</v>
       </c>
       <c r="B19" t="n">
-        <v>5.565258818039305</v>
+        <v>8.060896792064071</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.752537014023354</v>
+        <v>0.1013056490286277</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-7.813220521</v>
+        <v>5.216405221</v>
       </c>
       <c r="B20" t="n">
-        <v>3.70048838968577</v>
+        <v>7.990535314465109</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.223674656780194</v>
+        <v>0.632429005289199</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-8.010809331999999</v>
+        <v>3.100670173</v>
       </c>
       <c r="B21" t="n">
-        <v>2.25994097160386</v>
+        <v>7.17602015223021</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.514302019455142</v>
+        <v>0.9569703593721131</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.462926979</v>
+        <v>2.402943731</v>
       </c>
       <c r="B22" t="n">
-        <v>2.867322357539858</v>
+        <v>6.240644045938727</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.066686402327002</v>
+        <v>1.220731299197218</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.747236165</v>
+        <v>2.763455459</v>
       </c>
       <c r="B23" t="n">
-        <v>3.106568102228424</v>
+        <v>5.971301695049943</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.36018650090106</v>
+        <v>1.100304778006353</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2.038700614</v>
+        <v>3.524391919</v>
       </c>
       <c r="B24" t="n">
-        <v>2.486534519465668</v>
+        <v>6.045968104939382</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.107075412112972</v>
+        <v>1.021046736898948</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1.151236516</v>
+        <v>5.308280766</v>
       </c>
       <c r="B25" t="n">
-        <v>4.879065317131814</v>
+        <v>6.465662812581653</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.435690805687636</v>
+        <v>1.314629725976981</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.717598121</v>
+        <v>4.769429008</v>
       </c>
       <c r="B26" t="n">
-        <v>8.160577053643518</v>
+        <v>6.661038600823574</v>
       </c>
       <c r="C26" t="n">
-        <v>-10.49206615165234</v>
+        <v>1.472300806583601</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.722657905</v>
+        <v>1.985261332</v>
       </c>
       <c r="B27" t="n">
-        <v>9.013401738676121</v>
+        <v>6.237104812731465</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.16711889636153</v>
+        <v>1.061147349663961</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.112113925</v>
+        <v>0.69909056</v>
       </c>
       <c r="B28" t="n">
-        <v>9.516737285488674</v>
+        <v>5.659981353250902</v>
       </c>
       <c r="C28" t="n">
-        <v>-11.28362127643068</v>
+        <v>0.4553965862866991</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,55 +835,55 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.129668067</v>
+        <v>-0.424921168</v>
       </c>
       <c r="B29" t="n">
-        <v>9.780100107402037</v>
+        <v>4.978869846646363</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.14095469827522</v>
+        <v>-0.2592357233956037</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-2.375191094</v>
+        <v>-2.346458506</v>
       </c>
       <c r="B30" t="n">
-        <v>9.447995427338441</v>
+        <v>4.029274269955786</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.48780617139567</v>
+        <v>-1.19506793193833</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.955121105</v>
+        <v>-2.206970425</v>
       </c>
       <c r="B31" t="n">
-        <v>9.364425309465295</v>
+        <v>3.292380271875868</v>
       </c>
       <c r="C31" t="n">
-        <v>-11.77878601710771</v>
+        <v>-1.909600150089044</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.7032633</v>
+        <v>0.214367227</v>
       </c>
       <c r="B32" t="n">
-        <v>10.13850391518704</v>
+        <v>3.197311596225324</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.38753307283315</v>
+        <v>-2.005529763539475</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.342305649</v>
+        <v>-1.28477992</v>
       </c>
       <c r="B33" t="n">
-        <v>10.62269466012834</v>
+        <v>2.823974715512071</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.08437192220584</v>
+        <v>-2.385057698322927</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -905,27 +905,27 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.299438296</v>
+        <v>-3.458130153</v>
       </c>
       <c r="B34" t="n">
-        <v>10.60879521570648</v>
+        <v>2.095206697686935</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.09792974688031</v>
+        <v>-3.128258115970991</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-3.832283341</v>
+        <v>-3.204033053</v>
       </c>
       <c r="B35" t="n">
-        <v>10.22477630083397</v>
+        <v>1.436276123902914</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.14972530660525</v>
+        <v>-3.544875847512087</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.067603015</v>
+        <v>-2.848465655</v>
       </c>
       <c r="B36" t="n">
-        <v>11.42142923524071</v>
+        <v>0.9580250120806815</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.73369305102603</v>
+        <v>-3.784582291152378</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -947,27 +947,27 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23.20903307</v>
+        <v>-2.364109033</v>
       </c>
       <c r="B37" t="n">
-        <v>16.37228949951727</v>
+        <v>0.7502581509675394</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.335453367752541</v>
+        <v>-3.957271052333175</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.82758976</v>
+        <v>-1.072100843</v>
       </c>
       <c r="B38" t="n">
-        <v>17.97513794650266</v>
+        <v>0.9219831696091947</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.01387391220031</v>
+        <v>-3.916378629257968</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-7.082392909</v>
+        <v>0.5111814220000001</v>
       </c>
       <c r="B39" t="n">
-        <v>15.47537561966255</v>
+        <v>1.324532590653364</v>
       </c>
       <c r="C39" t="n">
-        <v>-8.740407014914297</v>
+        <v>-3.515409505299703</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,41 +989,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1.383745995</v>
+        <v>2.526514415</v>
       </c>
       <c r="B40" t="n">
-        <v>14.53267740696067</v>
+        <v>1.886104414098998</v>
       </c>
       <c r="C40" t="n">
-        <v>-9.698516747053922</v>
+        <v>-2.627959419755078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.279019937</v>
+        <v>2.585535647</v>
       </c>
       <c r="B41" t="n">
-        <v>13.92970226490032</v>
+        <v>2.410041300973194</v>
       </c>
       <c r="C41" t="n">
-        <v>-10.17412508011001</v>
+        <v>-1.969153833257317</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-5.873761794</v>
+        <v>-0.20839777</v>
       </c>
       <c r="B42" t="n">
-        <v>12.47174481859901</v>
+        <v>2.278011596512418</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.81711753792085</v>
+        <v>-2.008678973179874</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-3.313724751</v>
+        <v>0.24336444</v>
       </c>
       <c r="B43" t="n">
-        <v>10.59591819983717</v>
+        <v>2.252032490299638</v>
       </c>
       <c r="C43" t="n">
-        <v>-11.39783018435181</v>
+        <v>-1.939216916513278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.455557919</v>
+        <v>1.77084811</v>
       </c>
       <c r="B44" t="n">
-        <v>8.539378774998999</v>
+        <v>2.557800899475813</v>
       </c>
       <c r="C44" t="n">
-        <v>-8.59863465245513</v>
+        <v>-1.599165244209539</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-9.176852652999999</v>
+        <v>0.834719314</v>
       </c>
       <c r="B45" t="n">
-        <v>5.81137798105445</v>
+        <v>2.699996471254812</v>
       </c>
       <c r="C45" t="n">
-        <v>-9.529722963979607</v>
+        <v>-1.599192481061391</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-10.34324576</v>
+        <v>1.122234761</v>
       </c>
       <c r="B46" t="n">
-        <v>3.914729337412935</v>
+        <v>2.860160938078533</v>
       </c>
       <c r="C46" t="n">
-        <v>-11.02685144759481</v>
+        <v>-1.530613878357957</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,27 +1087,27 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.410481422</v>
+        <v>3.467697343</v>
       </c>
       <c r="B47" t="n">
-        <v>5.543588582145984</v>
+        <v>3.248119546337476</v>
       </c>
       <c r="C47" t="n">
-        <v>-9.468982660226075</v>
+        <v>-0.7973638929435753</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.266116808</v>
+        <v>2.565451964</v>
       </c>
       <c r="B48" t="n">
-        <v>7.207184474989409</v>
+        <v>3.338969908013949</v>
       </c>
       <c r="C48" t="n">
-        <v>-8.6409835587221</v>
+        <v>-0.3521696569563444</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-2.198272741</v>
+        <v>0.265335765</v>
       </c>
       <c r="B49" t="n">
-        <v>7.181795182126388</v>
+        <v>3.102839423772167</v>
       </c>
       <c r="C49" t="n">
-        <v>-9.208156760097738</v>
+        <v>-0.6072758718705427</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.132180103</v>
+        <v>-0.413553531</v>
       </c>
       <c r="B50" t="n">
-        <v>8.158889897595749</v>
+        <v>2.960696916154046</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.127070399595432</v>
+        <v>-1.129679342929181</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7.105019435</v>
+        <v>-0.039592024</v>
       </c>
       <c r="B51" t="n">
-        <v>9.506304899553223</v>
+        <v>2.954239914243625</v>
       </c>
       <c r="C51" t="n">
-        <v>-6.63880105491356</v>
+        <v>-1.50526811800327</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.530512415</v>
+        <v>2.387428553</v>
       </c>
       <c r="B52" t="n">
-        <v>10.42004482761927</v>
+        <v>3.366462293183252</v>
       </c>
       <c r="C52" t="n">
-        <v>-6.713827209489159</v>
+        <v>-1.252305839924832</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.598484502</v>
+        <v>3.243574886</v>
       </c>
       <c r="B53" t="n">
-        <v>10.23383550102183</v>
+        <v>3.823283916889467</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.50826416491866</v>
+        <v>-0.8345208108886382</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-5.011835211</v>
+        <v>3.294144684</v>
       </c>
       <c r="B54" t="n">
-        <v>9.090233451637705</v>
+        <v>4.192496032293079</v>
       </c>
       <c r="C54" t="n">
-        <v>-8.91452910032903</v>
+        <v>-0.4838224131404465</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.353690926</v>
+        <v>2.296418205</v>
       </c>
       <c r="B55" t="n">
-        <v>9.700944672045969</v>
+        <v>4.305186754001473</v>
       </c>
       <c r="C55" t="n">
-        <v>-8.218897183708494</v>
+        <v>-0.4196795429090308</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8.516549452</v>
+        <v>1.250532872</v>
       </c>
       <c r="B56" t="n">
-        <v>11.11976707936238</v>
+        <v>4.225323249298105</v>
       </c>
       <c r="C56" t="n">
-        <v>-6.527494761976623</v>
+        <v>-0.6167056265828295</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.882590421</v>
+        <v>0.136121096</v>
       </c>
       <c r="B57" t="n">
-        <v>11.76181333452545</v>
+        <v>3.976750311924275</v>
       </c>
       <c r="C57" t="n">
-        <v>-5.734953944789378</v>
+        <v>-1.03541027193389</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.70067026</v>
+        <v>0.283313728</v>
       </c>
       <c r="B58" t="n">
-        <v>11.15126217964015</v>
+        <v>3.726296685499254</v>
       </c>
       <c r="C58" t="n">
-        <v>-6.610047218615862</v>
+        <v>-1.259900583887938</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,27 +1255,27 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-9.632164353</v>
+        <v>1.180649522</v>
       </c>
       <c r="B59" t="n">
-        <v>8.997435954920357</v>
+        <v>3.639938461911595</v>
       </c>
       <c r="C59" t="n">
-        <v>-9.217341127918703</v>
+        <v>-1.194561822154154</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-11.34030161</v>
+        <v>2.659213324</v>
       </c>
       <c r="B60" t="n">
-        <v>6.658990745825129</v>
+        <v>3.896805536343948</v>
       </c>
       <c r="C60" t="n">
-        <v>-11.37104413347019</v>
+        <v>-0.8768177942018047</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-8.966992490000001</v>
+        <v>4.283958644</v>
       </c>
       <c r="B61" t="n">
-        <v>6.626050572964434</v>
+        <v>4.444006968578345</v>
       </c>
       <c r="C61" t="n">
-        <v>-13.98249433159694</v>
+        <v>-0.3144316168265666</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1297,41 +1297,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.335233896</v>
+        <v>6.217885532</v>
       </c>
       <c r="B62" t="n">
-        <v>10.07393096451973</v>
+        <v>5.268595355962153</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.62498897363281</v>
+        <v>0.5222211749150287</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.4573144</v>
+        <v>6.4513255</v>
       </c>
       <c r="B63" t="n">
-        <v>12.43799557175408</v>
+        <v>5.97162885040327</v>
       </c>
       <c r="C63" t="n">
-        <v>-14.69591396993976</v>
+        <v>1.241555969353233</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-4.772705131</v>
+        <v>5.518717295</v>
       </c>
       <c r="B64" t="n">
-        <v>11.83961603006484</v>
+        <v>6.336967380732503</v>
       </c>
       <c r="C64" t="n">
-        <v>-15.55503394462248</v>
+        <v>1.64106799320329</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-7.082214889</v>
+        <v>4.192659574</v>
       </c>
       <c r="B65" t="n">
-        <v>10.80407872569277</v>
+        <v>6.378915482588458</v>
       </c>
       <c r="C65" t="n">
-        <v>-16.6093003247299</v>
+        <v>1.680576697291442</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-2.804571199</v>
+        <v>3.761511255</v>
       </c>
       <c r="B66" t="n">
-        <v>10.5989620508174</v>
+        <v>6.30931055638638</v>
       </c>
       <c r="C66" t="n">
-        <v>-16.36496778995416</v>
+        <v>1.642887635637917</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,41 +1367,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20.88400924</v>
+        <v>6.323955511</v>
       </c>
       <c r="B67" t="n">
-        <v>15.12922460682541</v>
+        <v>6.69830672231779</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.38842168292169</v>
+        <v>2.193034412987782</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>17.92678078</v>
+        <v>7.438723768</v>
       </c>
       <c r="B68" t="n">
-        <v>18.25771751447179</v>
+        <v>7.143633863085938</v>
       </c>
       <c r="C68" t="n">
-        <v>-8.094360799219604</v>
+        <v>2.944928937130726</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-6.024115301</v>
+        <v>7.412898814</v>
       </c>
       <c r="B69" t="n">
-        <v>16.03059823596902</v>
+        <v>7.43295984768174</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.3095601263322</v>
+        <v>3.603050161689826</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-2.133303675</v>
+        <v>6.64274258</v>
       </c>
       <c r="B70" t="n">
-        <v>14.71537129184561</v>
+        <v>7.56151210166054</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.99186268500414</v>
+        <v>3.924393030374772</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.123296245</v>
+        <v>5.748673873</v>
       </c>
       <c r="B71" t="n">
-        <v>14.38651351101189</v>
+        <v>7.762678566547178</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.15838804450378</v>
+        <v>3.725515088657648</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.950128265</v>
+        <v>4.761725211</v>
       </c>
       <c r="B72" t="n">
-        <v>13.253909267975</v>
+        <v>7.932365798953563</v>
       </c>
       <c r="C72" t="n">
-        <v>-10.25146036211702</v>
+        <v>3.162879157882389</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.249210819</v>
+        <v>5.0035278</v>
       </c>
       <c r="B73" t="n">
-        <v>12.45999782886415</v>
+        <v>8.025768920525776</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.55772314763964</v>
+        <v>2.85183814202304</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.860789686</v>
+        <v>6.355170229</v>
       </c>
       <c r="B74" t="n">
-        <v>12.60326831778245</v>
+        <v>8.211776135513482</v>
       </c>
       <c r="C74" t="n">
-        <v>-10.33713266774761</v>
+        <v>3.032377637007069</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.818988188</v>
+        <v>7.712222897</v>
       </c>
       <c r="B75" t="n">
-        <v>12.15458431019956</v>
+        <v>8.552062052733572</v>
       </c>
       <c r="C75" t="n">
-        <v>-10.66927111799902</v>
+        <v>3.528150180433098</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-3.509952817</v>
+        <v>8.574110968999999</v>
       </c>
       <c r="B76" t="n">
-        <v>11.18871216639525</v>
+        <v>9.086297462476068</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.40444283115492</v>
+        <v>4.007516766310578</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.149148022</v>
+        <v>7.004920695</v>
       </c>
       <c r="B77" t="n">
-        <v>10.77268870836757</v>
+        <v>9.319829953535017</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.40493246694198</v>
+        <v>3.957189715397033</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.173612947</v>
+        <v>4.875001227</v>
       </c>
       <c r="B78" t="n">
-        <v>10.81738062715036</v>
+        <v>9.124852000000846</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.25373044844984</v>
+        <v>3.446764201602216</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,69 +1535,69 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.422535476</v>
+        <v>2.165017076</v>
       </c>
       <c r="B79" t="n">
-        <v>9.667347023732461</v>
+        <v>8.37960781290349</v>
       </c>
       <c r="C79" t="n">
-        <v>-9.84741268329681</v>
+        <v>2.543691933273913</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.358621117</v>
+        <v>0.657760778</v>
       </c>
       <c r="B80" t="n">
-        <v>7.524124056881</v>
+        <v>7.410728768972362</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.124728124934729</v>
+        <v>1.591015296730873</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.031291024</v>
+        <v>-0.21094797</v>
       </c>
       <c r="B81" t="n">
-        <v>5.591419546757231</v>
+        <v>6.419776755416343</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.859386385723021</v>
+        <v>0.6972392758459818</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-8.354216735</v>
+        <v>1.233973691</v>
       </c>
       <c r="B82" t="n">
-        <v>3.948483270839271</v>
+        <v>5.933931793126961</v>
       </c>
       <c r="C82" t="n">
-        <v>-6.704543485315324</v>
+        <v>0.2532704951401903</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-6.969194725</v>
+        <v>1.937872586</v>
       </c>
       <c r="B83" t="n">
-        <v>2.776863438074819</v>
+        <v>5.719708673532487</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.769389524945216</v>
+        <v>0.005202186253725483</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,27 +1605,27 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.180899604</v>
+        <v>1.763522276</v>
       </c>
       <c r="B84" t="n">
-        <v>5.077356671475701</v>
+        <v>5.511512734663516</v>
       </c>
       <c r="C84" t="n">
-        <v>-6.199017664355179</v>
+        <v>-0.2261751404110388</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.383115457</v>
+        <v>1.344093528</v>
       </c>
       <c r="B85" t="n">
-        <v>5.645957210142997</v>
+        <v>5.247615946270195</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.990039816019241</v>
+        <v>-0.4817084634273323</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,27 +1633,27 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-8.312493882</v>
+        <v>0.743366706</v>
       </c>
       <c r="B86" t="n">
-        <v>3.962930500360959</v>
+        <v>4.919016516265838</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.563194156713954</v>
+        <v>-0.8089438513885709</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-2.64147116</v>
+        <v>-0.847018317</v>
       </c>
       <c r="B87" t="n">
-        <v>3.721552041032617</v>
+        <v>4.352324281411894</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.65835143167374</v>
+        <v>-1.40307348168664</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.574167368</v>
+        <v>-0.972959621</v>
       </c>
       <c r="B88" t="n">
-        <v>4.046124923056289</v>
+        <v>3.841401800392888</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.425231380702741</v>
+        <v>-1.871185012640345</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-3.407921322</v>
+        <v>0.892742532</v>
       </c>
       <c r="B89" t="n">
-        <v>3.7367011877096</v>
+        <v>3.885188811354081</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.80315488466425</v>
+        <v>-1.951918368461566</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.000871593</v>
+        <v>-1.48806651</v>
       </c>
       <c r="B90" t="n">
-        <v>4.753478785392289</v>
+        <v>3.98438058080295</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.606293102877958</v>
+        <v>-3.032990832817391</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.690502348</v>
+        <v>-4.876544897</v>
       </c>
       <c r="B91" t="n">
-        <v>6.637559405948846</v>
+        <v>3.355046536435851</v>
       </c>
       <c r="C91" t="n">
-        <v>-6.243609914577824</v>
+        <v>-4.544552700908977</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-3.957785064</v>
+        <v>-2.214955543</v>
       </c>
       <c r="B92" t="n">
-        <v>5.993856390146042</v>
+        <v>3.268191996842882</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.261810825171513</v>
+        <v>-5.105779146604982</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-6.250776995</v>
+        <v>-0.210930036</v>
       </c>
       <c r="B93" t="n">
-        <v>5.149471975298569</v>
+        <v>3.551802465919175</v>
       </c>
       <c r="C93" t="n">
-        <v>-8.664146324046841</v>
+        <v>-5.106244199785069</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.534084874</v>
+        <v>0.763865102</v>
       </c>
       <c r="B94" t="n">
-        <v>6.572322881121481</v>
+        <v>3.934171678246757</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.570428408075669</v>
+        <v>-4.872179023940708</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88703287</v>
+        <v>5.172466441</v>
       </c>
       <c r="B95" t="n">
-        <v>6.551462743865764</v>
+        <v>6.582958946440574</v>
       </c>
       <c r="C95" t="n">
-        <v>-6.195134016376627</v>
+        <v>-5.264378244842213</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1773,55 +1773,55 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-3.547197489</v>
+        <v>10.83473013</v>
       </c>
       <c r="B96" t="n">
-        <v>5.806390372853673</v>
+        <v>8.618046903545858</v>
       </c>
       <c r="C96" t="n">
-        <v>-6.940206387388717</v>
+        <v>-3.229290287736929</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-3.005004524</v>
+        <v>12.61496345</v>
       </c>
       <c r="B97" t="n">
-        <v>5.318771069264673</v>
+        <v>10.60216393295171</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.427825690977717</v>
+        <v>-1.245173258331074</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.402143456</v>
+        <v>12.46294616</v>
       </c>
       <c r="B98" t="n">
-        <v>5.449247840287889</v>
+        <v>12.15905409810907</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.297348919954501</v>
+        <v>0.3117169068262839</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.929545606</v>
+        <v>8.814475387</v>
       </c>
       <c r="B99" t="n">
-        <v>6.819967069890832</v>
+        <v>12.67487207517971</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.926629690351558</v>
+        <v>0.8275348838969254</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.976410961</v>
+        <v>6.34922251</v>
       </c>
       <c r="B100" t="n">
-        <v>7.52591552431666</v>
+        <v>12.59447588125158</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.22068123592573</v>
+        <v>0.7471386899687911</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.912014946</v>
+        <v>4.445998134</v>
       </c>
       <c r="B101" t="n">
-        <v>6.912989106152711</v>
+        <v>12.1495140508389</v>
       </c>
       <c r="C101" t="n">
-        <v>-5.833607654089679</v>
+        <v>0.3021768595561145</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>

--- a/output6.xlsx
+++ b/output6.xlsx
@@ -474,13 +474,13 @@
         <v>4.276330538</v>
       </c>
       <c r="B3" t="n">
-        <v>8.905741720992554</v>
+        <v>12.531859717437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8904289580074458</v>
+        <v>4.516546954451892</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -488,10 +488,10 @@
         <v>4.821454312</v>
       </c>
       <c r="B4" t="n">
-        <v>8.841882531409221</v>
+        <v>10.96147859103521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8265697684241129</v>
+        <v>2.9461658280501</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -502,10 +502,10 @@
         <v>2.747235854</v>
       </c>
       <c r="B5" t="n">
-        <v>7.158825841153844</v>
+        <v>9.644803415295986</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8564869218312636</v>
+        <v>1.629490652310878</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>1.172902955</v>
       </c>
       <c r="B6" t="n">
-        <v>5.573676398316271</v>
+        <v>8.402808011891468</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.441636364668836</v>
+        <v>0.3874952489063599</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>-0.1251774</v>
       </c>
       <c r="B7" t="n">
-        <v>4.22028537973135</v>
+        <v>7.242607787541486</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.795027383253757</v>
+        <v>-0.7727049754436224</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0.096924545</v>
       </c>
       <c r="B8" t="n">
-        <v>4.127715892693143</v>
+        <v>6.434195749558128</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.887596870291965</v>
+        <v>-1.581117013426979</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>0.338881229</v>
       </c>
       <c r="B9" t="n">
-        <v>4.825190709302556</v>
+        <v>6.432453654615808</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.234952456896177</v>
+        <v>-2.627689511582926</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -572,10 +572,10 @@
         <v>0.498110285</v>
       </c>
       <c r="B10" t="n">
-        <v>4.985190749689509</v>
+        <v>6.089934769280129</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.070165811754317</v>
+        <v>-2.965421792163697</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0.062841145</v>
       </c>
       <c r="B11" t="n">
-        <v>4.732676421328867</v>
+        <v>5.83160976880669</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.449125925056743</v>
+        <v>-3.35019257757892</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
